--- a/seminars.xlsx
+++ b/seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gb\023_Containerization\seminars\tasks\tasks_learn_containerization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18BE068-E264-4E18-8E52-549D6906DA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DB1EBE-DC40-49D6-BBBE-B7C31BFF0010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="3240" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="namespaces" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="265">
   <si>
     <t>mkdir testfolder</t>
   </si>
@@ -767,6 +767,75 @@
   </si>
   <si>
     <t>--link' подключает контейнер test-mariadb как db, который будет видеть phpmyadmin. '-p' - порброс портов</t>
+  </si>
+  <si>
+    <t>dockerfile</t>
+  </si>
+  <si>
+    <t>первый слой, базовый слой на основе, которого будет собран docker image. В данном случае на основе nginx</t>
+  </si>
+  <si>
+    <t>FROM nginx:latest</t>
+  </si>
+  <si>
+    <t>LABEL maintainer='xxx@gmail.com'</t>
+  </si>
+  <si>
+    <t>метаданные, любая инфа</t>
+  </si>
+  <si>
+    <t>ARG _dest=/usr/share/nginx/html</t>
+  </si>
+  <si>
+    <t>Задаются переменные в момент сборки образа</t>
+  </si>
+  <si>
+    <t>WORKDIR ${_dest}</t>
+  </si>
+  <si>
+    <t>рабочая директория с примером подстановки заданной переменной _dest</t>
+  </si>
+  <si>
+    <t>COPY evonyee .</t>
+  </si>
+  <si>
+    <t>копирование файла или директории хоста в образ</t>
+  </si>
+  <si>
+    <t>ADD http://example.com/temp.pdf /usr/share/nginx/html</t>
+  </si>
+  <si>
+    <t>продвинутая версия COPY,может работать с архивами</t>
+  </si>
+  <si>
+    <t>ENV temp1='qqq'</t>
+  </si>
+  <si>
+    <t>переменная внутри контейнера</t>
+  </si>
+  <si>
+    <t>EXPOSE 80</t>
+  </si>
+  <si>
+    <t>RUN apt update -y</t>
+  </si>
+  <si>
+    <t>запуск комманды внутри образа, т.e. В процессе сборки выполнится указанная команда</t>
+  </si>
+  <si>
+    <t>комманда информирует докер сервисы что образом используется 80 порт</t>
+  </si>
+  <si>
+    <t>CMD echo $temp1</t>
+  </si>
+  <si>
+    <t>завершающая сборку команда, которая запускает сервис ради которого создавался контейнер. Окончание работы сервиса или ошибка останавливает контейнер, т е контейнер живет пока сервис работает</t>
+  </si>
+  <si>
+    <t>ENTRYPOINT echo $temp1</t>
+  </si>
+  <si>
+    <t>тоже самое, но есть разница</t>
   </si>
 </sst>
 </file>
@@ -2223,10 +2292,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E506E0B-5E23-4659-9E09-65B5C5B29EA5}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2470,6 +2539,99 @@
         <v>241</v>
       </c>
     </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="45">
+      <c r="A56" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30">
+      <c r="A58" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30">
+      <c r="A59" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30">
+      <c r="A60" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30">
+      <c r="A61" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="30">
+      <c r="A63" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="45">
+      <c r="A64" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="75">
+      <c r="A65" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{0DDBE827-722C-4C1B-9C21-EE3A788DF2EC}"/>

--- a/seminars.xlsx
+++ b/seminars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gb\023_Containerization\seminars\tasks\tasks_learn_containerization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DB1EBE-DC40-49D6-BBBE-B7C31BFF0010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8602C232-F06E-4019-86BC-BB90DF5AE639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="323">
   <si>
     <t>mkdir testfolder</t>
   </si>
@@ -836,6 +836,205 @@
   </si>
   <si>
     <t>тоже самое, но есть разница</t>
+  </si>
+  <si>
+    <t>mkdir task1</t>
+  </si>
+  <si>
+    <t>cd task1</t>
+  </si>
+  <si>
+    <t>nano Dockerfile</t>
+  </si>
+  <si>
+    <t>FROM ubuntu:22.10
+RUN apt-get update $$ \
+apt-get install -y cowsay &amp;&amp; \
+ln -s /usr/games/cowsay /usr/bin/cowsay &amp;&amp; \
+rm -rf /var/lib/apt/lists/*
+CMD ["cowsay"]</t>
+  </si>
+  <si>
+    <t>Сборка образа, пример</t>
+  </si>
+  <si>
+    <t>&amp;&amp; - логическое 'и', последующие команды выполняются при условии успешного выполнения предыдущей. Символ '\' - экранирование перевода строки, чтобы компилятор не воспринимал как новую комманду</t>
+  </si>
+  <si>
+    <t>ln -s /usr/games/cowsay /usr/bin/cowsay &amp;&amp; \ - создается символическая ссылка, чтобы бинарник увидел
+rm -rf /var/lib/apt/lists/* - Удаление всех apt пакетов, т к они не нужны</t>
+  </si>
+  <si>
+    <t>docker build -t cowsaytest .</t>
+  </si>
+  <si>
+    <t>сборка в образ cowsaytest, задаваемы через ключ -t. '.' - искать Dockerfile в текущей директории</t>
+  </si>
+  <si>
+    <t>или</t>
+  </si>
+  <si>
+    <t>docker build -t cowsaytest -f Dockerfile2 .</t>
+  </si>
+  <si>
+    <t>если Dockerfile называется иначе</t>
+  </si>
+  <si>
+    <t>docker images</t>
+  </si>
+  <si>
+    <t>проверяем образ в списке</t>
+  </si>
+  <si>
+    <t>docker run cowsaytest cowsay "Hi"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запускаем из образа cowsaytest команду cowsay с параметром 'Hi' </t>
+  </si>
+  <si>
+    <t>Попробуем добавить в образ, скопировать</t>
+  </si>
+  <si>
+    <t>mkdir task2</t>
+  </si>
+  <si>
+    <t>cd task2</t>
+  </si>
+  <si>
+    <t>nano Dockerfiletask2</t>
+  </si>
+  <si>
+    <t>FROM ubuntu:22.10
+RUN apt-get update $$ \
+apt-get install -y cowsay &amp;&amp; \
+ln -s /usr/games/cowsay /usr/bin/cowsay &amp;&amp; \
+rm -rf /var/lib/apt/lists/*
+COPY example.txt /
+COPY cowsay_script.sh /
+CMD ["cowsay"]</t>
+  </si>
+  <si>
+    <t>Добавили COPY, копирование двух файлов в корневую директорию</t>
+  </si>
+  <si>
+    <t>создадим эти файлы</t>
+  </si>
+  <si>
+    <t>nano example.txt</t>
+  </si>
+  <si>
+    <t>Hello world!</t>
+  </si>
+  <si>
+    <t>nano cowsay_script.sh</t>
+  </si>
+  <si>
+    <t>chmode +x cowsay_script.sh</t>
+  </si>
+  <si>
+    <t>делаем скрипт запускаемым</t>
+  </si>
+  <si>
+    <t>docker build -t cowsaytest:script -f Dockerfile2 .</t>
+  </si>
+  <si>
+    <t>собираем с тэгом script</t>
+  </si>
+  <si>
+    <t>docker run cowsaytest:script bash /cowsay_script.sh</t>
+  </si>
+  <si>
+    <t>#!/bin/bash
+cowsay &lt; example.txt</t>
+  </si>
+  <si>
+    <t>mkdir task3</t>
+  </si>
+  <si>
+    <t>cd task3</t>
+  </si>
+  <si>
+    <t>FROM ubuntu:22.10
+COPY example.txt /
+CMD sleep 600</t>
+  </si>
+  <si>
+    <t>Посмотрим длительность работы контейнера</t>
+  </si>
+  <si>
+    <t>docker build -t task3</t>
+  </si>
+  <si>
+    <t>docker run -d task3</t>
+  </si>
+  <si>
+    <t>запустим независимо, чтобы не захватило корневую оболочку</t>
+  </si>
+  <si>
+    <t>контейнер будет жить столько сколько в sleep</t>
+  </si>
+  <si>
+    <t>Разница между CMD и ENTRYPOINT в том, что усли ENTRYPOINT, то команда docker run -d task3 bash не выполнится, т е возможно выполнение только команды указанной в ENTRYPOINT</t>
+  </si>
+  <si>
+    <t>docker run --rm -it task3 bash</t>
+  </si>
+  <si>
+    <t>rm - автоудаление контейнера после завершения его работы</t>
+  </si>
+  <si>
+    <t>Пример с пробросом портов</t>
+  </si>
+  <si>
+    <t>mkdir task5</t>
+  </si>
+  <si>
+    <t>cd task5</t>
+  </si>
+  <si>
+    <t>FROM nginx:latest
+RUN echo 'Hi, Its container' \
+&gt;/usr/share/nginx/html/index.html
+EXPOSE 80</t>
+  </si>
+  <si>
+    <t>Перенаправляем  'Hi, Its container' в index.html. И указали для проброса порт 80</t>
+  </si>
+  <si>
+    <t>docker build -t testcontainer .</t>
+  </si>
+  <si>
+    <t>docker run --name testcontainer --rm -d -p 8081:80 testcontainer</t>
+  </si>
+  <si>
+    <t>Пример с python</t>
+  </si>
+  <si>
+    <t>mkdir demo</t>
+  </si>
+  <si>
+    <t>cd demo</t>
+  </si>
+  <si>
+    <t>nano test.py</t>
+  </si>
+  <si>
+    <t>import telebot
+print('Telebot ok!')</t>
+  </si>
+  <si>
+    <t>docker build -t python_test .</t>
+  </si>
+  <si>
+    <t>docker run python_test</t>
+  </si>
+  <si>
+    <t>FROM python:3.12.0a3
+RUN pip install --upgrade pip &amp;&amp; \
+pip insatll pyTelegramBotAPI==4.12.0
+WORKDIR /src
+COPY test.py .
+CMD python test.py</t>
   </si>
 </sst>
 </file>
@@ -896,7 +1095,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -909,6 +1108,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2292,16 +2500,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E506E0B-5E23-4659-9E09-65B5C5B29EA5}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="101.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2616,7 +2825,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="75">
+    <row r="65" spans="1:3" ht="75">
       <c r="A65" s="3" t="s">
         <v>261</v>
       </c>
@@ -2624,12 +2833,291 @@
         <v>262</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:3">
       <c r="A66" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="105">
+      <c r="A74" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="45">
+      <c r="A76" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="30">
+      <c r="A81" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="120">
+      <c r="A88" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="45">
+      <c r="A95" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="45">
+      <c r="A109" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="30">
+      <c r="A111" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C111" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="30">
+      <c r="A115" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="30">
+      <c r="A120" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="60">
+      <c r="A127" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="78.75" customHeight="1">
+      <c r="A137" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="30">
+      <c r="A139" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/seminars.xlsx
+++ b/seminars.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gb\023_Containerization\seminars\tasks\tasks_learn_containerization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8602C232-F06E-4019-86BC-BB90DF5AE639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813AAA19-DBE9-4AC6-918C-9B64FA3BB903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="namespaces" sheetId="1" r:id="rId1"/>
     <sheet name="cgroups" sheetId="2" r:id="rId2"/>
     <sheet name="LXC" sheetId="3" r:id="rId3"/>
     <sheet name="docker" sheetId="4" r:id="rId4"/>
+    <sheet name="docker compose" sheetId="5" r:id="rId5"/>
+    <sheet name="docker swarm" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="374">
   <si>
     <t>mkdir testfolder</t>
   </si>
@@ -1035,6 +1037,171 @@
 WORKDIR /src
 COPY test.py .
 CMD python test.py</t>
+  </si>
+  <si>
+    <t>Поднять два контейнера, связать их с помощью команды link, и пропинговать соседний контейнер</t>
+  </si>
+  <si>
+    <t>docker run --rm --name alpine1 -it alpine:latest ping -c 1000 google.ru</t>
+  </si>
+  <si>
+    <t>запускаем контейнер из образа alpine c командой ping, для того чтобы контейнер не успел остановится, пока мы его будем пинговать из другого</t>
+  </si>
+  <si>
+    <t>docker run --rm --name alpine2 --link alpine1:alpine1 -it alpine:latest ping -c 100 alpine1</t>
+  </si>
+  <si>
+    <t>запускаем второй контейнер из образа alpine c командой ping контейнера alpine1. Команда link создает линковку двух контейнеров, слева имя контейнера с каким линкуемся, справа имя как его будет видеть контйнер alpine2</t>
+  </si>
+  <si>
+    <t>nano docker-compose.yml</t>
+  </si>
+  <si>
+    <t>version: ‘3.9’
+services:
+  db:
+    image: mariadb:10.10.2
+    restart: always
+    environment:
+      MYSQL_ROOT_PASSWORD: 12345
+  adminer:
+    image: adminer:4.8.1
+    restart: always
+    ports:
+      - 6080:8080</t>
+  </si>
+  <si>
+    <t>слева порт хоста, справа порт у adminer. Docker compose свяжет эти контейнеры в сеть, а проброс портов 6080:8080 это для того чтобы мы могли увидеть adminer</t>
+  </si>
+  <si>
+    <t>docker container inspect task_2-adminer-1
+docker container inspect task_2-db-1</t>
+  </si>
+  <si>
+    <t>docker compose up -d</t>
+  </si>
+  <si>
+    <t>запуск, параметр -d - запуск в фоновом режиме</t>
+  </si>
+  <si>
+    <t>docker network ls</t>
+  </si>
+  <si>
+    <t>список сетей, управляемых docker</t>
+  </si>
+  <si>
+    <t>docker compose down</t>
+  </si>
+  <si>
+    <t>остановить и удалить, обратный к up</t>
+  </si>
+  <si>
+    <t>dicker compose build</t>
+  </si>
+  <si>
+    <t>собрать образ</t>
+  </si>
+  <si>
+    <t>docker compose logs</t>
+  </si>
+  <si>
+    <t>логи запущенных</t>
+  </si>
+  <si>
+    <t>docker compose ps</t>
+  </si>
+  <si>
+    <t>запущенные контейнеры</t>
+  </si>
+  <si>
+    <t>docker compose images</t>
+  </si>
+  <si>
+    <t>просмотр образов в рамках конфигурации</t>
+  </si>
+  <si>
+    <t>docker compose exec admine ls -l</t>
+  </si>
+  <si>
+    <t>выполнить команду в контейнере</t>
+  </si>
+  <si>
+    <t>docker swarm init</t>
+  </si>
+  <si>
+    <t>инициализация swarm, и текущая нода становмтся с ролью manager, и появится команда docker swarm join --token XXXXXXX для присоединения других нод</t>
+  </si>
+  <si>
+    <t>docker node ls</t>
+  </si>
+  <si>
+    <t>список нод в кластере</t>
+  </si>
+  <si>
+    <t>docker swarm join --token SWMTKN-1-37hpegcpongm9owjj86tzikh57dxpm951howa0uosbvrlwi2ot-4mw8wpogywa3d9hr72dqoqrks 192.168.1.51:2377</t>
+  </si>
+  <si>
+    <t>присоединяем ноду</t>
+  </si>
+  <si>
+    <t>docker service create --name mariadb_service --replicas 1 -e MYSQL_ROOT_PASSWORD=12345 -p 3306:3306 --network ingress mariadb:10.10.2</t>
+  </si>
+  <si>
+    <t>docker service ls</t>
+  </si>
+  <si>
+    <t>docker service ps mariadb_service</t>
+  </si>
+  <si>
+    <t>docker service rm mariadb_service</t>
+  </si>
+  <si>
+    <t>docker service create --name adminer_service --replicas 1 -p 6080:8080 --network test-network adminer:4.8.1</t>
+  </si>
+  <si>
+    <t>docker network create --driver overlay test-network --attachable</t>
+  </si>
+  <si>
+    <t>docker service create --name mariadb_service --constraint node.labels.env==prod --replicas 1 -e MYSQL_ROOT_PASSWORD=12345 -p 3306:3306 mariadb:10.10.2</t>
+  </si>
+  <si>
+    <t>docker service ps mariadb_service;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker service ps mariadb_service </t>
+  </si>
+  <si>
+    <t>docker service scale mariadb_service=4</t>
+  </si>
+  <si>
+    <t>менять количество контейнеров у сервиса</t>
+  </si>
+  <si>
+    <t>удаления сервиса со всеми контейнерами</t>
+  </si>
+  <si>
+    <t>создание сервиса</t>
+  </si>
+  <si>
+    <t>docker service create --name mariadb_service --mode=global -e MYSQL_ROOT_PASSWORD=12345 -p 3306:3306 mariadb:10.10.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> глобал режим, поднимет столько контейнеров, сколько нод в сервисе, в отличии от параметра --replicas, который задает кол-во контейнеров и они хаотично расбрасываются по нодам</t>
+  </si>
+  <si>
+    <t>свяжем сервисы между собой, певый способ через docker service stack deploy, второй через ручное создание сеть типа overlay</t>
+  </si>
+  <si>
+    <t>создаем сеть, attachable - даем возможность сервисам подключаться к сети</t>
+  </si>
+  <si>
+    <t>docker service create --name mariadb_service --replicas 1 -e MYSQL_ROOT_PASSWORD=12345 --network test-network mariadb:10.10.2</t>
+  </si>
+  <si>
+    <t>создаем сервис и подключаем его к сети test-nertwork</t>
+  </si>
+  <si>
+    <t>создаем второй сервис и подключаем его к сети test-nertwork</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1118,6 +1285,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2500,10 +2670,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E506E0B-5E23-4659-9E09-65B5C5B29EA5}">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145:B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3120,6 +3290,27 @@
         <v>321</v>
       </c>
     </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="60">
+      <c r="A146" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="75">
+      <c r="A147" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{0DDBE827-722C-4C1B-9C21-EE3A788DF2EC}"/>
@@ -3127,4 +3318,245 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B777CF-B5C8-4630-8D07-A639FFB8DA83}">
+  <dimension ref="A4:B18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="94" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="225">
+      <c r="A5" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C127C0CC-57DD-4224-BC57-AC6434237B76}">
+  <dimension ref="A2:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="135.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B16" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>359</v>
+      </c>
+      <c r="B20" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>371</v>
+      </c>
+      <c r="B21" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>358</v>
+      </c>
+      <c r="B22" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>367</v>
+      </c>
+      <c r="B26" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>363</v>
+      </c>
+      <c r="B31" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/seminars.xlsx
+++ b/seminars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gb\023_Containerization\seminars\tasks\tasks_learn_containerization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813AAA19-DBE9-4AC6-918C-9B64FA3BB903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9A0CCD-BF36-4DA2-855F-D8B7F0341492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3426,8 +3426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C127C0CC-57DD-4224-BC57-AC6434237B76}">
   <dimension ref="A2:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/seminars.xlsx
+++ b/seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gb\023_Containerization\seminars\tasks\tasks_learn_containerization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9A0CCD-BF36-4DA2-855F-D8B7F0341492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A917B88B-10DE-428B-986B-F945B4C63809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27150" yWindow="405" windowWidth="21450" windowHeight="12000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="namespaces" sheetId="1" r:id="rId1"/>
@@ -20,25 +20,17 @@
     <sheet name="docker compose" sheetId="5" r:id="rId5"/>
     <sheet name="docker swarm" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="378">
   <si>
     <t>mkdir testfolder</t>
   </si>
@@ -1144,9 +1136,6 @@
     <t>присоединяем ноду</t>
   </si>
   <si>
-    <t>docker service create --name mariadb_service --replicas 1 -e MYSQL_ROOT_PASSWORD=12345 -p 3306:3306 --network ingress mariadb:10.10.2</t>
-  </si>
-  <si>
     <t>docker service ls</t>
   </si>
   <si>
@@ -1202,6 +1191,46 @@
   </si>
   <si>
     <t>создаем второй сервис и подключаем его к сети test-nertwork</t>
+  </si>
+  <si>
+    <t>docker service create --name mariadb_service --replicas 1 -e MYSQL_ROOT_PASSWORD=12345 -p 3306:3306 mariadb:10.10.2</t>
+  </si>
+  <si>
+    <t>docker node update --label-add env=prod worker(id или имя ноды)</t>
+  </si>
+  <si>
+    <t>docker inspect tkp2m3cj8133j5nisc4nu8auu</t>
+  </si>
+  <si>
+    <t>docker stack deploy -c ./docker-compose.yml task5</t>
+  </si>
+  <si>
+    <t>version: '3.9'
+services:
+  db:
+    image: mysql:8.0.33
+    restart: always
+    environment:
+      MYSQL_ROOT_PASSWORD: task5
+    networks:
+      - task5-network
+    deploy:
+      mode: replicated
+      replicas: 2
+  phpmyadmin:
+    image: phpmyadmin:5.2.1
+    restart: always
+    ports:
+      - 8080:80
+    networks:
+      - task5-network
+    deploy:
+      mode: replicated
+      replicas: 2
+networks:
+  task5-network:
+    driver: overlay
+    attachable: true</t>
   </si>
 </sst>
 </file>
@@ -2669,11 +2698,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E506E0B-5E23-4659-9E09-65B5C5B29EA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145:B147"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3313,7 +3342,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{0DDBE827-722C-4C1B-9C21-EE3A788DF2EC}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3321,11 +3350,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B777CF-B5C8-4630-8D07-A639FFB8DA83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A4:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3423,11 +3452,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C127C0CC-57DD-4224-BC57-AC6434237B76}">
-  <dimension ref="A2:B32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A2:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3462,98 +3491,118 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="B8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>370</v>
+      </c>
+      <c r="B21" t="s">
         <v>371</v>
-      </c>
-      <c r="B21" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>366</v>
+      </c>
+      <c r="B26" t="s">
         <v>367</v>
-      </c>
-      <c r="B26" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>361</v>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>363</v>
-      </c>
-      <c r="B31" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>362</v>
+      </c>
+      <c r="B34" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="409.5">
+      <c r="A46" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
